--- a/islands.xlsx
+++ b/islands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\sotbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352DADEF-728F-416A-B07F-67D808AB7684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40E1E3-3467-4B8A-94B4-2B05BDD3F600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3960" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6851CCB6-8444-484D-BD9F-A7B9156DF748}">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -955,7 +955,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>177</v>
       </c>
@@ -965,190 +965,190 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -1163,608 +1163,611 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>69</v>
       </c>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="C90" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B90">
+    <sortCondition ref="A2:A90"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/islands.xlsx
+++ b/islands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\sotbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40E1E3-3467-4B8A-94B4-2B05BDD3F600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845BE93-4A92-4B6C-949F-2FC4E844F33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
+    <workbookView xWindow="28680" yWindow="3960" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="185">
   <si>
     <t>Cannon Cove</t>
   </si>
@@ -574,7 +574,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>The Shores of Plenty</t>
+  </si>
+  <si>
+    <t>The Ancient Isles</t>
+  </si>
+  <si>
+    <t>The Wilds</t>
+  </si>
+  <si>
+    <t>The Devil's Roar</t>
+  </si>
+  <si>
     <t>Sanctuary Outpost</t>
+  </si>
+  <si>
+    <t>region</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,11 +636,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,15 +956,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6851CCB6-8444-484D-BD9F-A7B9156DF748}">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -962,810 +974,991 @@
       <c r="B1" t="s">
         <v>178</v>
       </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>110</v>
       </c>
       <c r="B11" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>114</v>
       </c>
       <c r="B18" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>137</v>
       </c>
       <c r="B20" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>116</v>
       </c>
       <c r="B24" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>80</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>135</v>
       </c>
       <c r="B28" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>120</v>
       </c>
       <c r="B29" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>129</v>
       </c>
       <c r="B30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>159</v>
       </c>
       <c r="B31" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>157</v>
       </c>
       <c r="B33" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>171</v>
       </c>
       <c r="B34" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>98</v>
       </c>
       <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>163</v>
       </c>
       <c r="B41" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>122</v>
       </c>
       <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>175</v>
       </c>
       <c r="B45" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>139</v>
       </c>
       <c r="B46" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>165</v>
       </c>
       <c r="B48" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>32</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>86</v>
       </c>
       <c r="B50" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>88</v>
       </c>
       <c r="B51" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>131</v>
       </c>
       <c r="B53" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>20</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>100</v>
       </c>
       <c r="B55" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>124</v>
       </c>
       <c r="B57" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>155</v>
       </c>
       <c r="B58" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>46</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>161</v>
       </c>
       <c r="B62" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>179</v>
+      <c r="A64" t="s">
+        <v>183</v>
       </c>
       <c r="B64" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>126</v>
       </c>
       <c r="B66" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>102</v>
       </c>
       <c r="B67" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>22</v>
       </c>
       <c r="B69" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>173</v>
       </c>
       <c r="B70" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>104</v>
       </c>
       <c r="B71" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>34</v>
       </c>
       <c r="B72" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>106</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>169</v>
       </c>
       <c r="B74" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>24</v>
       </c>
       <c r="B76" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>147</v>
       </c>
       <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>36</v>
       </c>
       <c r="B78" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>167</v>
       </c>
       <c r="B79" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>48</v>
       </c>
       <c r="B80" t="s">
         <v>49</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>145</v>
       </c>
       <c r="B81" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>143</v>
       </c>
       <c r="B82" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>141</v>
       </c>
       <c r="B83" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>38</v>
       </c>
       <c r="B84" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>151</v>
       </c>
       <c r="B85" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>26</v>
       </c>
       <c r="B86" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>149</v>
       </c>
       <c r="B87" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>108</v>
       </c>
       <c r="B88" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>68</v>
       </c>
       <c r="B89" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B90">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C90">
     <sortCondition ref="A2:A90"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/islands.xlsx
+++ b/islands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\sotbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9845BE93-4A92-4B6C-949F-2FC4E844F33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBDB8A-10DD-418E-AAB9-E9AAD0509319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3960" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="187">
   <si>
     <t>Cannon Cove</t>
   </si>
@@ -590,6 +590,14 @@
   </si>
   <si>
     <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Reaper’s Hideout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6851CCB6-8444-484D-BD9F-A7B9156DF748}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1871,32 +1879,32 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
         <v>181</v>
@@ -1904,32 +1912,32 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
         <v>181</v>
@@ -1937,29 +1945,40 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>12</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>13</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C90">
-    <sortCondition ref="A2:A90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C91">
+    <sortCondition ref="A2:A91"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/islands.xlsx
+++ b/islands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\sotbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCBDB8A-10DD-418E-AAB9-E9AAD0509319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2984A35-0FFC-460C-A835-82D14AE62BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
   </bookViews>
@@ -597,8 +597,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Reaper’s Hideout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>The Reaper's Hideout</t>
   </si>
 </sst>
 </file>
@@ -965,7 +964,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/islands.xlsx
+++ b/islands.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\sotbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E88C3C-CA14-44C1-B898-0684CAC9168C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551DAFFF-8BCF-4A63-B3F6-822A8C285DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="3960" windowWidth="29040" windowHeight="15840" xr2:uid="{57CE9F30-7498-4A6F-A24E-70B9499880AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KOR" sheetId="1" r:id="rId1"/>
+    <sheet name="ENG" sheetId="2" r:id="rId2"/>
+    <sheet name="animals" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KOR!$A$1:$C$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="286">
   <si>
     <t>Cannon Cove</t>
   </si>
@@ -966,6 +968,37 @@
   </si>
   <si>
     <t>Fort of the Damned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wanderer's Refuge</t>
+  </si>
+  <si>
+    <t>Chicken Isle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thieves' Haven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Sunken Grove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1012,9 +1045,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6851CCB6-8444-484D-BD9F-A7B9156DF748}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1342,32 +1378,34 @@
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="5" max="7" width="5.625" customWidth="1"/>
     <col min="8" max="8" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>274</v>
       </c>
@@ -1378,20 +1416,23 @@
         <v>179</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(B2,$F$1:$G$91,2,FALSE)</f>
+        <f>VLOOKUP(B2,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Galleon's Grave Outpost</v>
       </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>COUNTIF(animals!A:A,KOR!$D2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(animals!B:B,KOR!$D2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(animals!C:C,KOR!$D2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>276</v>
       </c>
@@ -1402,20 +1443,23 @@
         <v>179</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">VLOOKUP(B3,$F$1:$G$91,2,FALSE)</f>
+        <f>VLOOKUP(B3,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Liar's Backbone</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>COUNTIF(animals!A:A,KOR!$D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(animals!B:B,KOR!$D3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(animals!C:C,KOR!$D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>261</v>
       </c>
@@ -1426,20 +1470,23 @@
         <v>179</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B4,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Black Sand Atoll</v>
       </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f>COUNTIF(animals!A:A,KOR!$D4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF(animals!B:B,KOR!$D4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(animals!C:C,KOR!$D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>273</v>
       </c>
@@ -1450,20 +1497,23 @@
         <v>179</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B5,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Black Water Enclave</v>
       </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>COUNTIF(animals!A:A,KOR!$D5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF(animals!B:B,KOR!$D5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(animals!C:C,KOR!$D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -1474,20 +1524,23 @@
         <v>178</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B6,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Ancient Spire Outpost</v>
       </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>COUNTIF(animals!A:A,KOR!$D6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(animals!B:B,KOR!$D6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIF(animals!C:C,KOR!$D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -1498,20 +1551,23 @@
         <v>177</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B7,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Golden Sands Outpost</v>
       </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f>COUNTIF(animals!A:A,KOR!$D7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIF(animals!B:B,KOR!$D7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(animals!C:C,KOR!$D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -1522,20 +1578,23 @@
         <v>179</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B8,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Scurvy Isley</v>
       </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f>COUNTIF(animals!A:A,KOR!$D8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF(animals!B:B,KOR!$D8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(animals!C:C,KOR!$D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -1546,20 +1605,23 @@
         <v>179</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B9,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The Crooked Masts</v>
       </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f>COUNTIF(animals!A:A,KOR!$D9)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF(animals!B:B,KOR!$D9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIF(animals!C:C,KOR!$D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -1570,20 +1632,23 @@
         <v>180</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B10,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Glowstone Cay</v>
       </c>
-      <c r="F10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f>COUNTIF(animals!A:A,KOR!$D10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF(animals!B:B,KOR!$D10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIF(animals!C:C,KOR!$D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -1594,20 +1659,23 @@
         <v>178</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B11,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The Crow's Nest Fortress</v>
       </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f>COUNTIF(animals!A:A,KOR!$D11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF(animals!B:B,KOR!$D11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIF(animals!C:C,KOR!$D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -1618,20 +1686,23 @@
         <v>179</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B12,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Shipwreck Bay</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12">
+        <f>COUNTIF(animals!A:A,KOR!$D12)</f>
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <f>COUNTIF(animals!B:B,KOR!$D12)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(animals!C:C,KOR!$D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>259</v>
       </c>
@@ -1642,20 +1713,23 @@
         <v>179</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B13,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Blind Man's Lagoon</v>
       </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f>COUNTIF(animals!A:A,KOR!$D13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF(animals!B:B,KOR!$D13)</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIF(animals!C:C,KOR!$D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -1666,20 +1740,23 @@
         <v>178</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B14,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Old Salts Atoll</v>
       </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>COUNTIF(animals!A:A,KOR!$D14)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF(animals!B:B,KOR!$D14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIF(animals!C:C,KOR!$D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -1690,20 +1767,23 @@
         <v>179</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B15,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Dagger Tooth Outpost</v>
       </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f>COUNTIF(animals!A:A,KOR!$D15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF(animals!B:B,KOR!$D15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIF(animals!C:C,KOR!$D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -1714,20 +1794,23 @@
         <v>179</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B16,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The Wild Treasures Store</v>
       </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f>COUNTIF(animals!A:A,KOR!$D16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(animals!B:B,KOR!$D16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIF(animals!C:C,KOR!$D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>243</v>
       </c>
@@ -1738,20 +1821,23 @@
         <v>180</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B17,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The Devil's Thirst</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f>COUNTIF(animals!A:A,KOR!$D17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF(animals!B:B,KOR!$D17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>COUNTIF(animals!C:C,KOR!$D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>217</v>
       </c>
@@ -1762,20 +1848,23 @@
         <v>178</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B18,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Devil's Ridge</v>
       </c>
-      <c r="F18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f>COUNTIF(animals!A:A,KOR!$D18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF(animals!B:B,KOR!$D18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>COUNTIF(animals!C:C,KOR!$D18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -1786,20 +1875,23 @@
         <v>178</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B19,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Thieves' Haven</v>
       </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f>COUNTIF(animals!A:A,KOR!$D19)</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIF(animals!B:B,KOR!$D19)</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIF(animals!C:C,KOR!$D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -1810,20 +1902,23 @@
         <v>178</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B20,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Discovery Ridge</v>
       </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f>COUNTIF(animals!A:A,KOR!$D20)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIF(animals!B:B,KOR!$D20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(animals!C:C,KOR!$D20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>222</v>
       </c>
@@ -1834,20 +1929,23 @@
         <v>178</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B21,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Barnacle Cay</v>
       </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f>COUNTIF(animals!A:A,KOR!$D21)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIF(animals!B:B,KOR!$D21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(animals!C:C,KOR!$D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>196</v>
       </c>
@@ -1858,20 +1956,23 @@
         <v>177</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B22,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Rapier Cay</v>
       </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f>COUNTIF(animals!A:A,KOR!$D22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIF(animals!B:B,KOR!$D22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>COUNTIF(animals!C:C,KOR!$D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -1882,20 +1983,23 @@
         <v>177</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B23,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Rum Runner Isle</v>
       </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f>COUNTIF(animals!A:A,KOR!$D23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIF(animals!B:B,KOR!$D23)</f>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>COUNTIF(animals!C:C,KOR!$D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>242</v>
       </c>
@@ -1906,20 +2010,23 @@
         <v>180</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B24,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Roaring Sands</v>
       </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f>COUNTIF(animals!A:A,KOR!$D24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIF(animals!B:B,KOR!$D24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>COUNTIF(animals!C:C,KOR!$D24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>194</v>
       </c>
@@ -1930,20 +2037,23 @@
         <v>177</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B25,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Lone Cove</v>
       </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f>COUNTIF(animals!A:A,KOR!$D25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIF(animals!B:B,KOR!$D25)</f>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIF(animals!C:C,KOR!$D25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -1954,20 +2064,23 @@
         <v>177</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B26,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Lonely Isle</v>
       </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f>COUNTIF(animals!A:A,KOR!$D26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIF(animals!B:B,KOR!$D26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIF(animals!C:C,KOR!$D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>237</v>
       </c>
@@ -1978,20 +2091,23 @@
         <v>180</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B27,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Ruby's Fall</v>
       </c>
-      <c r="F27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f>COUNTIF(animals!A:A,KOR!$D27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIF(animals!B:B,KOR!$D27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIF(animals!C:C,KOR!$D27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>212</v>
       </c>
@@ -2002,20 +2118,23 @@
         <v>178</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B28,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Lookout Point</v>
       </c>
-      <c r="F28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f>COUNTIF(animals!A:A,KOR!$D28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIF(animals!B:B,KOR!$D28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(animals!C:C,KOR!$D28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>244</v>
       </c>
@@ -2026,20 +2145,23 @@
         <v>180</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B29,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Magma's Tide</v>
       </c>
-      <c r="F29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f>COUNTIF(animals!A:A,KOR!$D29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF(animals!B:B,KOR!$D29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIF(animals!C:C,KOR!$D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -2050,20 +2172,23 @@
         <v>231</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B30,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Fort of the Damned</v>
       </c>
-      <c r="F30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f>COUNTIF(animals!A:A,KOR!$D30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIF(animals!B:B,KOR!$D30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>COUNTIF(animals!C:C,KOR!$D30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>269</v>
       </c>
@@ -2074,20 +2199,23 @@
         <v>179</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B31,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Marauder's Arch</v>
       </c>
-      <c r="F31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f>COUNTIF(animals!A:A,KOR!$D31)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIF(animals!B:B,KOR!$D31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>COUNTIF(animals!C:C,KOR!$D31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>224</v>
       </c>
@@ -2098,20 +2226,23 @@
         <v>180</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B32,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Morrow's Peak Outpost</v>
       </c>
-      <c r="F32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f>COUNTIF(animals!A:A,KOR!$D32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(animals!B:B,KOR!$D32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>COUNTIF(animals!C:C,KOR!$D32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>248</v>
       </c>
@@ -2122,20 +2253,23 @@
         <v>180</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B33,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Molten Sands Fortress</v>
       </c>
-      <c r="F33" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f>COUNTIF(animals!A:A,KOR!$D33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIF(animals!B:B,KOR!$D33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>COUNTIF(animals!C:C,KOR!$D33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>185</v>
       </c>
@@ -2146,20 +2280,23 @@
         <v>177</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B34,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Smugglers' Bay</v>
       </c>
-      <c r="F34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f>COUNTIF(animals!A:A,KOR!$D34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>COUNTIF(animals!B:B,KOR!$D34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>COUNTIF(animals!C:C,KOR!$D34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -2170,20 +2307,23 @@
         <v>178</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B35,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Mutineer Rock</v>
       </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f>COUNTIF(animals!A:A,KOR!$D35)</f>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIF(animals!B:B,KOR!$D35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>COUNTIF(animals!C:C,KOR!$D35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>204</v>
       </c>
@@ -2194,20 +2334,23 @@
         <v>177</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B36,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Wanderers Refuge</v>
       </c>
-      <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f>COUNTIF(animals!A:A,KOR!$D36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIF(animals!B:B,KOR!$D36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>COUNTIF(animals!C:C,KOR!$D36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>206</v>
       </c>
@@ -2218,20 +2361,23 @@
         <v>177</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B37,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Sailor's Knot Stronghold</v>
       </c>
-      <c r="F37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f>COUNTIF(animals!A:A,KOR!$D37)</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>COUNTIF(animals!B:B,KOR!$D37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>COUNTIF(animals!C:C,KOR!$D37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>186</v>
       </c>
@@ -2242,20 +2388,23 @@
         <v>177</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B38,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Sailor's Bounty</v>
       </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f>COUNTIF(animals!A:A,KOR!$D38)</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>COUNTIF(animals!B:B,KOR!$D38)</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>COUNTIF(animals!C:C,KOR!$D38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>188</v>
       </c>
@@ -2266,20 +2415,23 @@
         <v>177</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B39,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Boulder Cay</v>
       </c>
-      <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f>COUNTIF(animals!A:A,KOR!$D39)</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>COUNTIF(animals!B:B,KOR!$D39)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>COUNTIF(animals!C:C,KOR!$D39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>213</v>
       </c>
@@ -2290,20 +2442,23 @@
         <v>178</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B40,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Booty Isle</v>
       </c>
-      <c r="F40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f>COUNTIF(animals!A:A,KOR!$D40)</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>COUNTIF(animals!B:B,KOR!$D40)</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>COUNTIF(animals!C:C,KOR!$D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -2314,20 +2469,23 @@
         <v>177</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B41,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The North Star Seapost</v>
       </c>
-      <c r="F41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f>COUNTIF(animals!A:A,KOR!$D41)</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>COUNTIF(animals!B:B,KOR!$D41)</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>COUNTIF(animals!C:C,KOR!$D41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>250</v>
       </c>
@@ -2338,20 +2496,23 @@
         <v>180</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B42,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Brian's Bazaar</v>
       </c>
-      <c r="F42" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f>COUNTIF(animals!A:A,KOR!$D42)</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>COUNTIF(animals!B:B,KOR!$D42)</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>COUNTIF(animals!C:C,KOR!$D42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>238</v>
       </c>
@@ -2362,20 +2523,23 @@
         <v>180</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B43,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Brimstone Rock</v>
       </c>
-      <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f>COUNTIF(animals!A:A,KOR!$D43)</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>COUNTIF(animals!B:B,KOR!$D43)</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>COUNTIF(animals!C:C,KOR!$D43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>251</v>
       </c>
@@ -2386,20 +2550,23 @@
         <v>184</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B44,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The Reaper's Hideout</v>
       </c>
-      <c r="F44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f>COUNTIF(animals!A:A,KOR!$D44)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>COUNTIF(animals!B:B,KOR!$D44)</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>COUNTIF(animals!C:C,KOR!$D44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>264</v>
       </c>
@@ -2410,20 +2577,23 @@
         <v>179</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B45,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Shark Tooth Key</v>
       </c>
-      <c r="F45" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f>COUNTIF(animals!A:A,KOR!$D45)</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>COUNTIF(animals!B:B,KOR!$D45)</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>COUNTIF(animals!C:C,KOR!$D45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -2434,20 +2604,23 @@
         <v>179</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B46,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Shark Fin Camp</v>
       </c>
-      <c r="F46" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f>COUNTIF(animals!A:A,KOR!$D46)</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>COUNTIF(animals!B:B,KOR!$D46)</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>COUNTIF(animals!C:C,KOR!$D46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -2458,20 +2631,23 @@
         <v>177</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B47,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Sandy Shallows</v>
       </c>
-      <c r="F47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f>COUNTIF(animals!A:A,KOR!$D47)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>COUNTIF(animals!B:B,KOR!$D47)</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>COUNTIF(animals!C:C,KOR!$D47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>211</v>
       </c>
@@ -2482,20 +2658,23 @@
         <v>178</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B48,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Shark Bait Cove</v>
       </c>
-      <c r="F48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f>COUNTIF(animals!A:A,KOR!$D48)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f>COUNTIF(animals!B:B,KOR!$D48)</f>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f>COUNTIF(animals!C:C,KOR!$D48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -2506,20 +2685,23 @@
         <v>177</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B49,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Sanctuary Outpost</v>
       </c>
-      <c r="F49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" t="s">
-        <v>86</v>
-      </c>
-      <c r="H49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f>COUNTIF(animals!A:A,KOR!$D49)</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>COUNTIF(animals!B:B,KOR!$D49)</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>COUNTIF(animals!C:C,KOR!$D49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -2530,20 +2712,23 @@
         <v>179</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B50,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The Sunken Grove</v>
       </c>
-      <c r="F50" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f>COUNTIF(animals!A:A,KOR!$D50)</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>COUNTIF(animals!B:B,KOR!$D50)</f>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f>COUNTIF(animals!C:C,KOR!$D50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>271</v>
       </c>
@@ -2554,20 +2739,23 @@
         <v>179</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B51,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Tri-Rock Isle</v>
       </c>
-      <c r="F51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f>COUNTIF(animals!A:A,KOR!$D51)</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>COUNTIF(animals!B:B,KOR!$D51)</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>COUNTIF(animals!C:C,KOR!$D51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -2578,20 +2766,23 @@
         <v>179</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B52,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Three Paces East Seapost</v>
       </c>
-      <c r="F52" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f>COUNTIF(animals!A:A,KOR!$D52)</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>COUNTIF(animals!B:B,KOR!$D52)</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>COUNTIF(animals!C:C,KOR!$D52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -2602,20 +2793,23 @@
         <v>177</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B53,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Lagoon of Whispers</v>
       </c>
-      <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <f>COUNTIF(animals!A:A,KOR!$D53)</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>COUNTIF(animals!B:B,KOR!$D53)</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>COUNTIF(animals!C:C,KOR!$D53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -2626,20 +2820,23 @@
         <v>177</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B54,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Salty Sands</v>
       </c>
-      <c r="F54" t="s">
-        <v>101</v>
-      </c>
-      <c r="G54" t="s">
-        <v>100</v>
-      </c>
-      <c r="H54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <f>COUNTIF(animals!A:A,KOR!$D54)</f>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <f>COUNTIF(animals!B:B,KOR!$D54)</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>COUNTIF(animals!C:C,KOR!$D54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>233</v>
       </c>
@@ -2650,20 +2847,23 @@
         <v>178</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B55,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Snake Island</v>
       </c>
-      <c r="F55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
-      <c r="H55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <f>COUNTIF(animals!A:A,KOR!$D55)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>COUNTIF(animals!B:B,KOR!$D55)</f>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f>COUNTIF(animals!C:C,KOR!$D55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>247</v>
       </c>
@@ -2674,20 +2874,23 @@
         <v>180</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B56,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Scorched Pass</v>
       </c>
-      <c r="F56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G56" t="s">
-        <v>124</v>
-      </c>
-      <c r="H56" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <f>COUNTIF(animals!A:A,KOR!$D56)</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>COUNTIF(animals!B:B,KOR!$D56)</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>COUNTIF(animals!C:C,KOR!$D56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -2698,20 +2901,23 @@
         <v>178</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B57,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Stephen's Spoils</v>
       </c>
-      <c r="F57" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" t="s">
-        <v>155</v>
-      </c>
-      <c r="H57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f>COUNTIF(animals!A:A,KOR!$D57)</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>COUNTIF(animals!B:B,KOR!$D57)</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>COUNTIF(animals!C:C,KOR!$D57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>235</v>
       </c>
@@ -2722,20 +2928,23 @@
         <v>180</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B58,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Cinder Islet</v>
       </c>
-      <c r="F58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <f>COUNTIF(animals!A:A,KOR!$D58)</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>COUNTIF(animals!B:B,KOR!$D58)</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>COUNTIF(animals!C:C,KOR!$D58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -2746,20 +2955,23 @@
         <v>177</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B59,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Sea Dog's Rest</v>
       </c>
-      <c r="F59" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f>COUNTIF(animals!A:A,KOR!$D59)</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>COUNTIF(animals!B:B,KOR!$D59)</f>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f>COUNTIF(animals!C:C,KOR!$D59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>245</v>
       </c>
@@ -2770,20 +2982,23 @@
         <v>180</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B60,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Ashen Reaches</v>
       </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f>COUNTIF(animals!A:A,KOR!$D60)</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>COUNTIF(animals!B:B,KOR!$D60)</f>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>COUNTIF(animals!C:C,KOR!$D60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>228</v>
       </c>
@@ -2794,20 +3009,23 @@
         <v>178</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B61,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Fools Lagoon</v>
       </c>
-      <c r="F61" t="s">
-        <v>162</v>
-      </c>
-      <c r="G61" t="s">
-        <v>161</v>
-      </c>
-      <c r="H61" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f>COUNTIF(animals!A:A,KOR!$D61)</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>COUNTIF(animals!B:B,KOR!$D61)</f>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>COUNTIF(animals!C:C,KOR!$D61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -2818,20 +3036,23 @@
         <v>179</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B62,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Shiver Retreat</v>
       </c>
-      <c r="F62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f>COUNTIF(animals!A:A,KOR!$D62)</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>COUNTIF(animals!B:B,KOR!$D62)</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>COUNTIF(animals!C:C,KOR!$D62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -2842,20 +3063,23 @@
         <v>179</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B63,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Old Faithful Isle</v>
       </c>
-      <c r="F63" t="s">
-        <v>128</v>
-      </c>
-      <c r="G63" t="s">
-        <v>181</v>
-      </c>
-      <c r="H63" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <f>COUNTIF(animals!A:A,KOR!$D63)</f>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f>COUNTIF(animals!B:B,KOR!$D63)</f>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f>COUNTIF(animals!C:C,KOR!$D63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -2866,20 +3090,23 @@
         <v>177</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B64,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Keel Haul Fort</v>
       </c>
-      <c r="F64" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f>COUNTIF(animals!A:A,KOR!$D64)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>COUNTIF(animals!B:B,KOR!$D64)</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>COUNTIF(animals!C:C,KOR!$D64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>263</v>
       </c>
@@ -2890,20 +3117,23 @@
         <v>179</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B65,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Isle of Last Words</v>
       </c>
-      <c r="F65" t="s">
-        <v>127</v>
-      </c>
-      <c r="G65" t="s">
-        <v>126</v>
-      </c>
-      <c r="H65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <f>COUNTIF(animals!A:A,KOR!$D65)</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>COUNTIF(animals!B:B,KOR!$D65)</f>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>COUNTIF(animals!C:C,KOR!$D65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>205</v>
       </c>
@@ -2914,20 +3144,23 @@
         <v>177</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(B66,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Mermaid's Hideaway</v>
       </c>
-      <c r="F66" t="s">
-        <v>103</v>
-      </c>
-      <c r="G66" t="s">
-        <v>102</v>
-      </c>
-      <c r="H66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <f>COUNTIF(animals!A:A,KOR!$D66)</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>COUNTIF(animals!B:B,KOR!$D66)</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>COUNTIF(animals!C:C,KOR!$D66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -2938,20 +3171,23 @@
         <v>178</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D91" si="1">VLOOKUP(B67,$F$1:$G$91,2,FALSE)</f>
+        <f>VLOOKUP(B67,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Lost Gold Fort</v>
       </c>
-      <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s">
-        <v>66</v>
-      </c>
-      <c r="H67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <f>COUNTIF(animals!A:A,KOR!$D67)</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>COUNTIF(animals!B:B,KOR!$D67)</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>COUNTIF(animals!C:C,KOR!$D67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>226</v>
       </c>
@@ -2962,20 +3198,23 @@
         <v>178</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B68,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Castaway Isle</v>
       </c>
-      <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <f>COUNTIF(animals!A:A,KOR!$D68)</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>COUNTIF(animals!B:B,KOR!$D68)</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>COUNTIF(animals!C:C,KOR!$D68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -2986,20 +3225,23 @@
         <v>231</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B69,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The Finest Trading Post</v>
       </c>
-      <c r="F69" t="s">
-        <v>172</v>
-      </c>
-      <c r="G69" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <f>COUNTIF(animals!A:A,KOR!$D69)</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>COUNTIF(animals!B:B,KOR!$D69)</f>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f>COUNTIF(animals!C:C,KOR!$D69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>227</v>
       </c>
@@ -3010,20 +3252,23 @@
         <v>178</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B70,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Chicken Isle</v>
       </c>
-      <c r="F70" t="s">
-        <v>105</v>
-      </c>
-      <c r="G70" t="s">
-        <v>104</v>
-      </c>
-      <c r="H70" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <f>COUNTIF(animals!A:A,KOR!$D70)</f>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f>COUNTIF(animals!B:B,KOR!$D70)</f>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f>COUNTIF(animals!C:C,KOR!$D70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>199</v>
       </c>
@@ -3034,20 +3279,23 @@
         <v>177</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B71,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Cannon Cove</v>
       </c>
-      <c r="F71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <f>COUNTIF(animals!A:A,KOR!$D71)</f>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f>COUNTIF(animals!B:B,KOR!$D71)</f>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f>COUNTIF(animals!C:C,KOR!$D71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -3058,20 +3306,23 @@
         <v>180</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B72,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Cursewater Shores</v>
       </c>
-      <c r="F72" t="s">
-        <v>107</v>
-      </c>
-      <c r="G72" t="s">
-        <v>106</v>
-      </c>
-      <c r="H72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <f>COUNTIF(animals!A:A,KOR!$D72)</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>COUNTIF(animals!B:B,KOR!$D72)</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f>COUNTIF(animals!C:C,KOR!$D72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>219</v>
       </c>
@@ -3082,20 +3333,23 @@
         <v>178</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B73,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Cutlass Cay</v>
       </c>
-      <c r="F73" t="s">
-        <v>168</v>
-      </c>
-      <c r="G73" t="s">
-        <v>167</v>
-      </c>
-      <c r="H73" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <f>COUNTIF(animals!A:A,KOR!$D73)</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>COUNTIF(animals!B:B,KOR!$D73)</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f>COUNTIF(animals!C:C,KOR!$D73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>255</v>
       </c>
@@ -3106,20 +3360,23 @@
         <v>179</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B74,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Kraken Watchtower</v>
       </c>
-      <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <f>COUNTIF(animals!A:A,KOR!$D74)</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>COUNTIF(animals!B:B,KOR!$D74)</f>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f>COUNTIF(animals!C:C,KOR!$D74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>272</v>
       </c>
@@ -3130,20 +3387,23 @@
         <v>179</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B75,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Kraken's Fall</v>
       </c>
-      <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <f>COUNTIF(animals!A:A,KOR!$D75)</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>COUNTIF(animals!B:B,KOR!$D75)</f>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f>COUNTIF(animals!C:C,KOR!$D75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>197</v>
       </c>
@@ -3154,20 +3414,23 @@
         <v>177</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B76,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Crescent Isle</v>
       </c>
-      <c r="F76" t="s">
-        <v>148</v>
-      </c>
-      <c r="G76" t="s">
-        <v>147</v>
-      </c>
-      <c r="H76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <f>COUNTIF(animals!A:A,KOR!$D76)</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>COUNTIF(animals!B:B,KOR!$D76)</f>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f>COUNTIF(animals!C:C,KOR!$D76)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>223</v>
       </c>
@@ -3178,20 +3441,23 @@
         <v>178</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B77,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Crook's Hollow</v>
       </c>
-      <c r="F77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <f>COUNTIF(animals!A:A,KOR!$D77)</f>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f>COUNTIF(animals!B:B,KOR!$D77)</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>COUNTIF(animals!C:C,KOR!$D77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -3202,20 +3468,23 @@
         <v>177</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B78,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Twin Groves</v>
       </c>
-      <c r="F78" t="s">
-        <v>166</v>
-      </c>
-      <c r="G78" t="s">
-        <v>165</v>
-      </c>
-      <c r="H78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <f>COUNTIF(animals!A:A,KOR!$D78)</f>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f>COUNTIF(animals!B:B,KOR!$D78)</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>COUNTIF(animals!C:C,KOR!$D78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>220</v>
       </c>
@@ -3226,20 +3495,23 @@
         <v>178</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B79,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Paradise Spring</v>
       </c>
-      <c r="F79" t="s">
-        <v>49</v>
-      </c>
-      <c r="G79" t="s">
-        <v>48</v>
-      </c>
-      <c r="H79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <f>COUNTIF(animals!A:A,KOR!$D79)</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>COUNTIF(animals!B:B,KOR!$D79)</f>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f>COUNTIF(animals!C:C,KOR!$D79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>246</v>
       </c>
@@ -3250,20 +3522,23 @@
         <v>180</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B80,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Fetcher's Rest</v>
       </c>
-      <c r="F80" t="s">
-        <v>146</v>
-      </c>
-      <c r="G80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <f>COUNTIF(animals!A:A,KOR!$D80)</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>COUNTIF(animals!B:B,KOR!$D80)</f>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f>COUNTIF(animals!C:C,KOR!$D80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -3274,20 +3549,23 @@
         <v>180</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B81,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Forsaken Brink</v>
       </c>
-      <c r="F81" t="s">
-        <v>144</v>
-      </c>
-      <c r="G81" t="s">
-        <v>143</v>
-      </c>
-      <c r="H81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <f>COUNTIF(animals!A:A,KOR!$D81)</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>COUNTIF(animals!B:B,KOR!$D81)</f>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f>COUNTIF(animals!C:C,KOR!$D81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>241</v>
       </c>
@@ -3298,20 +3576,23 @@
         <v>180</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B82,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Roaring Traders</v>
       </c>
-      <c r="F82" t="s">
-        <v>183</v>
-      </c>
-      <c r="G82" t="s">
-        <v>184</v>
-      </c>
-      <c r="H82" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <f>COUNTIF(animals!A:A,KOR!$D82)</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>COUNTIF(animals!B:B,KOR!$D82)</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>COUNTIF(animals!C:C,KOR!$D82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -3322,20 +3603,23 @@
         <v>177</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B83,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>The Spoils of Plenty Store</v>
       </c>
-      <c r="F83" t="s">
-        <v>142</v>
-      </c>
-      <c r="G83" t="s">
-        <v>141</v>
-      </c>
-      <c r="H83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <f>COUNTIF(animals!A:A,KOR!$D83)</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>COUNTIF(animals!B:B,KOR!$D83)</f>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f>COUNTIF(animals!C:C,KOR!$D83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>207</v>
       </c>
@@ -3346,20 +3630,23 @@
         <v>178</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B84,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Plunder Valley</v>
       </c>
-      <c r="F84" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H84" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <f>COUNTIF(animals!A:A,KOR!$D84)</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>COUNTIF(animals!B:B,KOR!$D84)</f>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f>COUNTIF(animals!C:C,KOR!$D84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -3370,20 +3657,23 @@
         <v>178</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B85,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Plunder Outpost</v>
       </c>
-      <c r="F85" t="s">
-        <v>152</v>
-      </c>
-      <c r="G85" t="s">
-        <v>151</v>
-      </c>
-      <c r="H85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <f>COUNTIF(animals!A:A,KOR!$D85)</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f>COUNTIF(animals!B:B,KOR!$D85)</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f>COUNTIF(animals!C:C,KOR!$D85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>270</v>
       </c>
@@ -3394,20 +3684,23 @@
         <v>179</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B86,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Plunderer's Plight</v>
       </c>
-      <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <f>COUNTIF(animals!A:A,KOR!$D86)</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>COUNTIF(animals!B:B,KOR!$D86)</f>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f>COUNTIF(animals!C:C,KOR!$D86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>240</v>
       </c>
@@ -3418,20 +3711,23 @@
         <v>180</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B87,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Flame's End</v>
       </c>
-      <c r="F87" t="s">
-        <v>150</v>
-      </c>
-      <c r="G87" t="s">
-        <v>149</v>
-      </c>
-      <c r="H87" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <f>COUNTIF(animals!A:A,KOR!$D87)</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>COUNTIF(animals!B:B,KOR!$D87)</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f>COUNTIF(animals!C:C,KOR!$D87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>236</v>
       </c>
@@ -3442,20 +3738,23 @@
         <v>180</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B88,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Flintlock Peninsula</v>
       </c>
-      <c r="F88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" t="s">
-        <v>108</v>
-      </c>
-      <c r="H88" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <f>COUNTIF(animals!A:A,KOR!$D88)</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>COUNTIF(animals!B:B,KOR!$D88)</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f>COUNTIF(animals!C:C,KOR!$D88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>190</v>
       </c>
@@ -3466,20 +3765,23 @@
         <v>177</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B89,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Picaroon Palms</v>
       </c>
-      <c r="F89" t="s">
-        <v>69</v>
-      </c>
-      <c r="G89" t="s">
-        <v>68</v>
-      </c>
-      <c r="H89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <f>COUNTIF(animals!A:A,KOR!$D89)</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f>COUNTIF(animals!B:B,KOR!$D89)</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f>COUNTIF(animals!C:C,KOR!$D89)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>267</v>
       </c>
@@ -3490,20 +3792,23 @@
         <v>179</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B90,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Skull Keep</v>
       </c>
-      <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <f>COUNTIF(animals!A:A,KOR!$D90)</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f>COUNTIF(animals!B:B,KOR!$D90)</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f>COUNTIF(animals!C:C,KOR!$D90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>252</v>
       </c>
@@ -3514,25 +3819,23 @@
         <v>177</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(B91,ENG!$A$1:$B$91,2,FALSE)</f>
         <v>Hidden Spring Keep</v>
       </c>
-      <c r="F91" t="s">
-        <v>230</v>
-      </c>
-      <c r="G91" t="s">
-        <v>277</v>
-      </c>
-      <c r="H91" t="s">
-        <v>178</v>
+      <c r="E91">
+        <f>COUNTIF(animals!A:A,KOR!$D91)</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f>COUNTIF(animals!B:B,KOR!$D91)</f>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f>COUNTIF(animals!C:C,KOR!$D91)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C91" xr:uid="{40DDE763-3F8F-4902-936A-BBC4C0A3398D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C90">
-      <sortCondition ref="A1:A90"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C88">
     <sortCondition ref="A2:A88"/>
   </sortState>
@@ -3540,4 +3843,1242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31022AB5-5C9B-4610-9CA1-E66D9416B4E0}">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E386888C-1343-46FB-89DA-59065650E3AA}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="Blind Man's Lagoon" display="https://seaofthieves.gamepedia.com/Blind_Man%27s_Lagoon" xr:uid="{6C4B50EC-DB0B-40B1-AB4A-EBF1863FABA1}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="Cannon Cove" display="https://seaofthieves.gamepedia.com/Cannon_Cove" xr:uid="{E8683BB2-AA92-4BCA-A956-C7F02C73AB5F}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="Crescent Isle" display="https://seaofthieves.gamepedia.com/Crescent_Isle" xr:uid="{19E4ABA2-A279-49A0-8EEF-2D19CFC136D4}"/>
+    <hyperlink ref="B5" r:id="rId4" tooltip="Devil's Ridge" display="https://seaofthieves.gamepedia.com/Devil%27s_Ridge" xr:uid="{8EAE2468-237A-4D12-8754-82A15D23F4BF}"/>
+    <hyperlink ref="B6" r:id="rId5" tooltip="Kraken's Fall" display="https://seaofthieves.gamepedia.com/Kraken%27s_Fall" xr:uid="{4444D3AE-16F9-4575-A0C3-9473F45C7699}"/>
+    <hyperlink ref="B7" r:id="rId6" tooltip="Lone Cove" display="https://seaofthieves.gamepedia.com/Lone_Cove" xr:uid="{066D3893-16FE-4907-B3CC-8E510733C866}"/>
+    <hyperlink ref="B8" r:id="rId7" tooltip="Old Faithful Isle" display="https://seaofthieves.gamepedia.com/Old_Faithful_Isle" xr:uid="{D9AF71D3-3A3C-4CFE-A5DB-6DEBE93E0047}"/>
+    <hyperlink ref="B9" r:id="rId8" tooltip="Paradise Spring" display="https://seaofthieves.gamepedia.com/Paradise_Spring" xr:uid="{6586ACCE-4262-4797-828B-D8BB559AB7FB}"/>
+    <hyperlink ref="B10" r:id="rId9" tooltip="Rum Runner Isle" display="https://seaofthieves.gamepedia.com/Rum_Runner_Isle" xr:uid="{05B968E2-4741-40E0-91CA-C59DE41CC4D6}"/>
+    <hyperlink ref="B11" r:id="rId10" tooltip="Sea Dog's Rest" display="https://seaofthieves.gamepedia.com/Sea_Dog%27s_Rest" xr:uid="{55713785-7589-4546-88F5-F9B3AD2047B4}"/>
+    <hyperlink ref="B12" r:id="rId11" tooltip="Shark Bait Cove" display="https://seaofthieves.gamepedia.com/Shark_Bait_Cove" xr:uid="{00167F0D-170E-465C-AC4C-74939BE09738}"/>
+    <hyperlink ref="B13" r:id="rId12" tooltip="Shipwreck Bay" display="https://seaofthieves.gamepedia.com/Shipwreck_Bay" xr:uid="{313F0476-3E40-43F1-8F00-E9501D47A5BE}"/>
+    <hyperlink ref="B14" r:id="rId13" tooltip="Snake Island" display="https://seaofthieves.gamepedia.com/Snake_Island" xr:uid="{ACCF0923-8F88-46FA-B136-2F108EA76066}"/>
+    <hyperlink ref="B15" r:id="rId14" tooltip="The Sunken Grove" display="https://seaofthieves.gamepedia.com/The_Sunken_Grove" xr:uid="{8B554C6A-C2FA-486D-9C4C-17464C9F4A9B}"/>
+    <hyperlink ref="B16" r:id="rId15" tooltip="Thieves' Haven" display="https://seaofthieves.gamepedia.com/Thieves%27_Haven" xr:uid="{DB8D9F3A-A18C-4397-936E-77D493C99A66}"/>
+    <hyperlink ref="C2" r:id="rId16" tooltip="The Crooked Masts" display="https://seaofthieves.gamepedia.com/The_Crooked_Masts" xr:uid="{730BC6DF-D334-4523-8276-FD24155883F1}"/>
+    <hyperlink ref="C3" r:id="rId17" tooltip="Crescent Isle" display="https://seaofthieves.gamepedia.com/Crescent_Isle" xr:uid="{3C4D7FF2-500F-45F0-91A2-F3D9720F7443}"/>
+    <hyperlink ref="C4" r:id="rId18" tooltip="Devil's Ridge" display="https://seaofthieves.gamepedia.com/Devil%27s_Ridge" xr:uid="{F4D8B029-6ADA-4790-88F7-D5BD86AF9A78}"/>
+    <hyperlink ref="C5" r:id="rId19" tooltip="Discovery Ridge" display="https://seaofthieves.gamepedia.com/Discovery_Ridge" xr:uid="{D03ACA9E-7A51-4EAE-B95C-9FDB258BDF7E}"/>
+    <hyperlink ref="C6" r:id="rId20" tooltip="Kraken's Fall" display="https://seaofthieves.gamepedia.com/Kraken%27s_Fall" xr:uid="{4969B8F6-3E44-4569-AB07-BEE06191D310}"/>
+    <hyperlink ref="C7" r:id="rId21" tooltip="Isle of Last Words" display="https://seaofthieves.gamepedia.com/Isle_of_Last_Words" xr:uid="{7D37B48D-6EEC-4606-B992-0DFA800EA4D2}"/>
+    <hyperlink ref="C8" r:id="rId22" tooltip="Lone Cove" display="https://seaofthieves.gamepedia.com/Lone_Cove" xr:uid="{7DAD84AB-10E0-46F2-8EB8-E7FB3C44EFC3}"/>
+    <hyperlink ref="C9" r:id="rId23" tooltip="Marauder's Arch" display="https://seaofthieves.gamepedia.com/Marauder%27s_Arch" xr:uid="{1502E7D5-8F8D-462D-933C-BD994394D06F}"/>
+    <hyperlink ref="C10" r:id="rId24" tooltip="Picaroon Palms" display="https://seaofthieves.gamepedia.com/Picaroon_Palms" xr:uid="{13807CA3-E38D-41DF-9D00-25BD52349277}"/>
+    <hyperlink ref="C11" r:id="rId25" tooltip="Snake Island" display="https://seaofthieves.gamepedia.com/Snake_Island" xr:uid="{F1A52A68-7B00-44E2-8636-E4B4241D9B30}"/>
+    <hyperlink ref="C12" r:id="rId26" tooltip="The Sunken Grove" display="https://seaofthieves.gamepedia.com/The_Sunken_Grove" xr:uid="{35D38544-1FDC-4921-8776-6FFCFE3EC7C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>